--- a/com.bankofamerica/src/test/resources/test_data.xlsx
+++ b/com.bankofamerica/src/test/resources/test_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\IdeaProjects\SeleniumBootcamp\com.bankofamerica\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01447101-EBC4-4326-B2D2-1DA3A1E4EED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F863250C-E05D-4929-81C1-F7201A9D97A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="16200" windowHeight="9307" xr2:uid="{2F0A4BAB-7296-4554-A559-18852C1D8871}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="16200" windowHeight="9307" activeTab="1" xr2:uid="{2F0A4BAB-7296-4554-A559-18852C1D8871}"/>
   </bookViews>
   <sheets>
     <sheet name="bankofamerica_zip" sheetId="1" r:id="rId1"/>
+    <sheet name="invalid_zip" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>zip</t>
+  </si>
+  <si>
+    <t>invalid search</t>
   </si>
 </sst>
 </file>
@@ -392,7 +396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389D9635-72DC-4383-BE81-760D245F0EC6}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -421,4 +425,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD8276B-3BF3-46CC-B189-351E4217C941}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>